--- a/자격증.xlsx
+++ b/자격증.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Desktop\auto_valid_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\민태희\Desktop\github\isbr_auto_valid_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB54895-F5E7-424C-AF4C-ED76E6599B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468739C0-B38B-4F12-A399-8CC9073BAE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,13 +278,25 @@
   <si>
     <t>초본</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-X2-001652</t>
+  </si>
+  <si>
+    <t>유통관리사 2급</t>
+  </si>
+  <si>
+    <t>오승경</t>
+  </si>
+  <si>
+    <t>C0100002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +332,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,6 +414,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -669,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1153,6 +1185,23 @@
         <v>66</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/자격증.xlsx
+++ b/자격증.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\민태희\Desktop\github\isbr_auto_valid_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr_auto_valid_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468739C0-B38B-4F12-A399-8CC9073BAE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21201CB-39BB-414F-87FC-3E18147BF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="412">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +53,6 @@
     <t>김정호</t>
   </si>
   <si>
-    <t>오유진</t>
-  </si>
-  <si>
-    <t>김영훈</t>
-  </si>
-  <si>
-    <t>김수진</t>
-  </si>
-  <si>
     <t>대한상공회의소</t>
   </si>
   <si>
@@ -69,21 +60,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>14-I9-031980</t>
-  </si>
-  <si>
-    <t>15-K9-024989</t>
-  </si>
-  <si>
-    <t>13-I1-000046</t>
-  </si>
-  <si>
-    <t>23-K9-06748</t>
-  </si>
-  <si>
-    <t>04-I1-011210</t>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,193 +79,1214 @@
     <t>컴퓨터활용능력 2급</t>
   </si>
   <si>
-    <t>워드프로세서(2012년 이후)</t>
-  </si>
-  <si>
-    <t>컴퓨터활용능력 1급</t>
-  </si>
-  <si>
-    <t>워드프로세서 2급(2012년 이전)</t>
-  </si>
-  <si>
-    <t>한국사능력검정시험1급</t>
-  </si>
-  <si>
-    <t>한국사능력검정시험3급</t>
-  </si>
-  <si>
-    <t>장주용</t>
-  </si>
-  <si>
     <t>국사편찬위원회</t>
-  </si>
-  <si>
-    <t>29-110061</t>
-  </si>
-  <si>
-    <t>25-104359</t>
-  </si>
-  <si>
-    <t>38-118618</t>
-  </si>
-  <si>
-    <t>60-102554</t>
-  </si>
-  <si>
-    <t>72-329128</t>
-  </si>
-  <si>
-    <t>한국사능력검정시험1급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터활용능력 2급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>registerationNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한국데이터산업진흥원</t>
-  </si>
-  <si>
-    <t>ADsP-042019725</t>
-  </si>
-  <si>
-    <t>데이터분석준전문가(ADsP)</t>
-  </si>
-  <si>
-    <t>강태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	정보기술자격(ITQ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국생산성본부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>birth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이수민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001-2022551-000131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06.03.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A0012012107009177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B34203_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B43212_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B11234_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강경석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민연금공단_국민연금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20241107-H060-265154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민연금가입자가입증명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IM2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조영은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국세무사회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이정우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1730-3002-0530-3240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강보험자격득실확인서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G202410020115989899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최갑인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최예원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WTW6-HVW8-8FHX-D8O2-0A9Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김명기</t>
+    <t>S0804503</t>
+  </si>
+  <si>
+    <t>조희태</t>
+  </si>
+  <si>
+    <t>310116000225</t>
+  </si>
+  <si>
+    <t>세무회계 1급</t>
+  </si>
+  <si>
+    <t>S0100225</t>
+  </si>
+  <si>
+    <t>서지민</t>
+  </si>
+  <si>
+    <t>국사편찬위원회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1729-7520-6200-7059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-X2-001652</t>
-  </si>
-  <si>
-    <t>유통관리사 2급</t>
-  </si>
-  <si>
-    <t>오승경</t>
-  </si>
-  <si>
-    <t>C0100002</t>
+    <t>43-120917</t>
+  </si>
+  <si>
+    <t>S0100647</t>
+  </si>
+  <si>
+    <t>허도연</t>
+  </si>
+  <si>
+    <t>53-109601</t>
+  </si>
+  <si>
+    <t>S0100756</t>
+  </si>
+  <si>
+    <t>이정희</t>
+  </si>
+  <si>
+    <t>63-109760</t>
+  </si>
+  <si>
+    <t>S0100840</t>
+  </si>
+  <si>
+    <t>정한나</t>
+  </si>
+  <si>
+    <t>36-113029</t>
+  </si>
+  <si>
+    <t>S0101910</t>
+  </si>
+  <si>
+    <t>류민아</t>
+  </si>
+  <si>
+    <t>43-120650</t>
+  </si>
+  <si>
+    <t>S0102493</t>
+  </si>
+  <si>
+    <t>김가연</t>
+  </si>
+  <si>
+    <t>69-114171</t>
+  </si>
+  <si>
+    <t>S0103416</t>
+  </si>
+  <si>
+    <t>나유진</t>
+  </si>
+  <si>
+    <t>36-110428</t>
+  </si>
+  <si>
+    <t>S0104103</t>
+  </si>
+  <si>
+    <t>김도영</t>
+  </si>
+  <si>
+    <t>49-114469</t>
+  </si>
+  <si>
+    <t>S0104178</t>
+  </si>
+  <si>
+    <t>최예림</t>
+  </si>
+  <si>
+    <t>54-113776</t>
+  </si>
+  <si>
+    <t>S0107999</t>
+  </si>
+  <si>
+    <t>신선민</t>
+  </si>
+  <si>
+    <t>45-124975</t>
+  </si>
+  <si>
+    <t>S0108129</t>
+  </si>
+  <si>
+    <t>주아현</t>
+  </si>
+  <si>
+    <t>47-105860</t>
+  </si>
+  <si>
+    <t>S0108330</t>
+  </si>
+  <si>
+    <t>양원경</t>
+  </si>
+  <si>
+    <t>38-114476</t>
+  </si>
+  <si>
+    <t>S0200405</t>
+  </si>
+  <si>
+    <t>박재한</t>
+  </si>
+  <si>
+    <t>24-112752</t>
+  </si>
+  <si>
+    <t>S0202798</t>
+  </si>
+  <si>
+    <t>이민경</t>
+  </si>
+  <si>
+    <t>57-101322</t>
+  </si>
+  <si>
+    <t>S0209297</t>
+  </si>
+  <si>
+    <t>김용원</t>
+  </si>
+  <si>
+    <t>68-100759</t>
+  </si>
+  <si>
+    <t>S0300677</t>
+  </si>
+  <si>
+    <t>홍남영</t>
+  </si>
+  <si>
+    <t>64-102087</t>
+  </si>
+  <si>
+    <t>S0304352</t>
+  </si>
+  <si>
+    <t>김수하</t>
+  </si>
+  <si>
+    <t>55-101349</t>
+  </si>
+  <si>
+    <t>S0305793</t>
+  </si>
+  <si>
+    <t>심영준</t>
+  </si>
+  <si>
+    <t>47-110030</t>
+  </si>
+  <si>
+    <t>S0310251</t>
+  </si>
+  <si>
+    <t>한승헌</t>
+  </si>
+  <si>
+    <t>46-104711</t>
+  </si>
+  <si>
+    <t>S0400308</t>
+  </si>
+  <si>
+    <t>김효민</t>
+  </si>
+  <si>
+    <t>58-109098</t>
+  </si>
+  <si>
+    <t>S0402637</t>
+  </si>
+  <si>
+    <t>백지윤</t>
+  </si>
+  <si>
+    <t>62-101293</t>
+  </si>
+  <si>
+    <t>S0403512</t>
+  </si>
+  <si>
+    <t>정소진</t>
+  </si>
+  <si>
+    <t>38-127650</t>
+  </si>
+  <si>
+    <t>S0403607</t>
+  </si>
+  <si>
+    <t>현지예</t>
+  </si>
+  <si>
+    <t>43-116246</t>
+  </si>
+  <si>
+    <t>S0403956</t>
+  </si>
+  <si>
+    <t>이대권</t>
+  </si>
+  <si>
+    <t>61-107961</t>
+  </si>
+  <si>
+    <t>S0406870</t>
+  </si>
+  <si>
+    <t>정효은</t>
+  </si>
+  <si>
+    <t>47-106927</t>
+  </si>
+  <si>
+    <t>S0409941</t>
+  </si>
+  <si>
+    <t>고세은</t>
+  </si>
+  <si>
+    <t>51-145411</t>
+  </si>
+  <si>
+    <t>S0500052</t>
+  </si>
+  <si>
+    <t>이승은</t>
+  </si>
+  <si>
+    <t>55-101200</t>
+  </si>
+  <si>
+    <t>S0500086</t>
+  </si>
+  <si>
+    <t>곽한솔</t>
+  </si>
+  <si>
+    <t>57-104417</t>
+  </si>
+  <si>
+    <t>S0500357</t>
+  </si>
+  <si>
+    <t>이창재</t>
+  </si>
+  <si>
+    <t>44-102775</t>
+  </si>
+  <si>
+    <t>S0500620</t>
+  </si>
+  <si>
+    <t>최승근</t>
+  </si>
+  <si>
+    <t>64-105694</t>
+  </si>
+  <si>
+    <t>S0500632</t>
+  </si>
+  <si>
+    <t>이정후</t>
+  </si>
+  <si>
+    <t>57-106397</t>
+  </si>
+  <si>
+    <t>S0501524</t>
+  </si>
+  <si>
+    <t>조용호</t>
+  </si>
+  <si>
+    <t>46-125614</t>
+  </si>
+  <si>
+    <t>S0501730</t>
+  </si>
+  <si>
+    <t>변수연</t>
+  </si>
+  <si>
+    <t>60-113369</t>
+  </si>
+  <si>
+    <t>S0501923</t>
+  </si>
+  <si>
+    <t>최지웅</t>
+  </si>
+  <si>
+    <t>69-104037</t>
+  </si>
+  <si>
+    <t>S0502034</t>
+  </si>
+  <si>
+    <t>추민수</t>
+  </si>
+  <si>
+    <t>63-107525</t>
+  </si>
+  <si>
+    <t>S0503015</t>
+  </si>
+  <si>
+    <t>유현지</t>
+  </si>
+  <si>
+    <t>46-108959</t>
+  </si>
+  <si>
+    <t>S0504307</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>51-114636</t>
+  </si>
+  <si>
+    <t>S0504679</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>47-101500</t>
+  </si>
+  <si>
+    <t>S0505968</t>
+  </si>
+  <si>
+    <t>김종윤</t>
+  </si>
+  <si>
+    <t>53-107996</t>
+  </si>
+  <si>
+    <t>S0506391</t>
+  </si>
+  <si>
+    <t>박슬빈</t>
+  </si>
+  <si>
+    <t>57-101916</t>
+  </si>
+  <si>
+    <t>S0506613</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>69-109207</t>
+  </si>
+  <si>
+    <t>S0509316</t>
+  </si>
+  <si>
+    <t>임유진</t>
+  </si>
+  <si>
+    <t>49-111660</t>
+  </si>
+  <si>
+    <t>S0509639</t>
+  </si>
+  <si>
+    <t>서예슬</t>
+  </si>
+  <si>
+    <t>51-122473</t>
+  </si>
+  <si>
+    <t>S0700614</t>
+  </si>
+  <si>
+    <t>최현서</t>
+  </si>
+  <si>
+    <t>53-114375</t>
+  </si>
+  <si>
+    <t>S0700938</t>
+  </si>
+  <si>
+    <t>이승협</t>
+  </si>
+  <si>
+    <t>41-104388</t>
+  </si>
+  <si>
+    <t>S0703522</t>
+  </si>
+  <si>
+    <t>남예인</t>
+  </si>
+  <si>
+    <t>49-104694</t>
+  </si>
+  <si>
+    <t>S0703653</t>
+  </si>
+  <si>
+    <t>임경현</t>
+  </si>
+  <si>
+    <t>48-106895</t>
+  </si>
+  <si>
+    <t>S0704831</t>
+  </si>
+  <si>
+    <t>이현화</t>
+  </si>
+  <si>
+    <t>45-112105</t>
+  </si>
+  <si>
+    <t>S0706156</t>
+  </si>
+  <si>
+    <t>황태인</t>
+  </si>
+  <si>
+    <t>47-109729</t>
+  </si>
+  <si>
+    <t>S0706612</t>
+  </si>
+  <si>
+    <t>송훈기</t>
+  </si>
+  <si>
+    <t>36-127842</t>
+  </si>
+  <si>
+    <t>S0708365</t>
+  </si>
+  <si>
+    <t>김시경</t>
+  </si>
+  <si>
+    <t>55-112540</t>
+  </si>
+  <si>
+    <t>S0708889</t>
+  </si>
+  <si>
+    <t>강경배</t>
+  </si>
+  <si>
+    <t>28-114667</t>
+  </si>
+  <si>
+    <t>S0800589</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>47-100663</t>
+  </si>
+  <si>
+    <t>S0800809</t>
+  </si>
+  <si>
+    <t>이현웅</t>
+  </si>
+  <si>
+    <t>66-106882</t>
+  </si>
+  <si>
+    <t>S0800831</t>
+  </si>
+  <si>
+    <t>김수환</t>
+  </si>
+  <si>
+    <t>37-100083</t>
+  </si>
+  <si>
+    <t>S0801224</t>
+  </si>
+  <si>
+    <t>기정훈</t>
+  </si>
+  <si>
+    <t>51-103298</t>
+  </si>
+  <si>
+    <t>S0803742</t>
+  </si>
+  <si>
+    <t>조민영</t>
+  </si>
+  <si>
+    <t>42-109780</t>
+  </si>
+  <si>
+    <t>S0804461</t>
+  </si>
+  <si>
+    <t>박진우</t>
+  </si>
+  <si>
+    <t>42-107182</t>
+  </si>
+  <si>
+    <t>52-114849</t>
+  </si>
+  <si>
+    <t>S0805490</t>
+  </si>
+  <si>
+    <t>이연경</t>
+  </si>
+  <si>
+    <t>53-103828</t>
+  </si>
+  <si>
+    <t>S0805619</t>
+  </si>
+  <si>
+    <t>김초희</t>
+  </si>
+  <si>
+    <t>38-100597</t>
+  </si>
+  <si>
+    <t>S0805887</t>
+  </si>
+  <si>
+    <t>박예지</t>
+  </si>
+  <si>
+    <t>46-103323</t>
+  </si>
+  <si>
+    <t>S0806947</t>
+  </si>
+  <si>
+    <t>이승찬</t>
+  </si>
+  <si>
+    <t>32-116062</t>
+  </si>
+  <si>
+    <t>S0807587</t>
+  </si>
+  <si>
+    <t>손유정</t>
+  </si>
+  <si>
+    <t>63-102962</t>
+  </si>
+  <si>
+    <t>S0807757</t>
+  </si>
+  <si>
+    <t>최정윤</t>
+  </si>
+  <si>
+    <t>53-103745</t>
+  </si>
+  <si>
+    <t>S0811184</t>
+  </si>
+  <si>
+    <t>박가연</t>
+  </si>
+  <si>
+    <t>34-120525</t>
+  </si>
+  <si>
+    <t>S0900648</t>
+  </si>
+  <si>
+    <t>송재욱</t>
+  </si>
+  <si>
+    <t>51-139119</t>
+  </si>
+  <si>
+    <t>S0900933</t>
+  </si>
+  <si>
+    <t>김용재</t>
+  </si>
+  <si>
+    <t>63-116566</t>
+  </si>
+  <si>
+    <t>S0901101</t>
+  </si>
+  <si>
+    <t>정유진</t>
+  </si>
+  <si>
+    <t>60-111530</t>
+  </si>
+  <si>
+    <t>S0901794</t>
+  </si>
+  <si>
+    <t>우부민</t>
+  </si>
+  <si>
+    <t>51-105265</t>
+  </si>
+  <si>
+    <t>S0903991</t>
+  </si>
+  <si>
+    <t>신희준</t>
+  </si>
+  <si>
+    <t>65-108712</t>
+  </si>
+  <si>
+    <t>S0905326</t>
+  </si>
+  <si>
+    <t>이건익</t>
+  </si>
+  <si>
+    <t>71-100150</t>
+  </si>
+  <si>
+    <t>S0907073</t>
+  </si>
+  <si>
+    <t>이상호</t>
+  </si>
+  <si>
+    <t>27-115176</t>
+  </si>
+  <si>
+    <t>S0907082</t>
+  </si>
+  <si>
+    <t>김윤동</t>
+  </si>
+  <si>
+    <t>64-105224</t>
+  </si>
+  <si>
+    <t>S0907599</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>48-104054</t>
+  </si>
+  <si>
+    <t>S0907736</t>
+  </si>
+  <si>
+    <t>김주엽</t>
+  </si>
+  <si>
+    <t>51-127070</t>
+  </si>
+  <si>
+    <t>S0909518</t>
+  </si>
+  <si>
+    <t>60-105680</t>
+  </si>
+  <si>
+    <t>S0910521</t>
+  </si>
+  <si>
+    <t>노미소</t>
+  </si>
+  <si>
+    <t>46-103671</t>
+  </si>
+  <si>
+    <t>S1100966</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>65-108045</t>
+  </si>
+  <si>
+    <t>S1101415</t>
+  </si>
+  <si>
+    <t>김경화</t>
+  </si>
+  <si>
+    <t>49-105208</t>
+  </si>
+  <si>
+    <t>S1103120</t>
+  </si>
+  <si>
+    <t>조득희</t>
+  </si>
+  <si>
+    <t>26-106890</t>
+  </si>
+  <si>
+    <t>S1104993</t>
+  </si>
+  <si>
+    <t>이가희</t>
+  </si>
+  <si>
+    <t>38-116788</t>
+  </si>
+  <si>
+    <t>S1111402</t>
+  </si>
+  <si>
+    <t>김주현</t>
+  </si>
+  <si>
+    <t>43-116912</t>
+  </si>
+  <si>
+    <t>S1201504</t>
+  </si>
+  <si>
+    <t>박수연</t>
+  </si>
+  <si>
+    <t>46-104749</t>
+  </si>
+  <si>
+    <t>S1201878</t>
+  </si>
+  <si>
+    <t>조민석</t>
+  </si>
+  <si>
+    <t>45-106581</t>
+  </si>
+  <si>
+    <t>S1303993</t>
+  </si>
+  <si>
+    <t>김도은</t>
+  </si>
+  <si>
+    <t>57-128397</t>
+  </si>
+  <si>
+    <t>S1308487</t>
+  </si>
+  <si>
+    <t>이창현</t>
+  </si>
+  <si>
+    <t>43-121807</t>
+  </si>
+  <si>
+    <t>S1309929</t>
+  </si>
+  <si>
+    <t>노승택</t>
+  </si>
+  <si>
+    <t>24-117098</t>
+  </si>
+  <si>
+    <t>S1402748</t>
+  </si>
+  <si>
+    <t>조아현</t>
+  </si>
+  <si>
+    <t>63-109047</t>
+  </si>
+  <si>
+    <t>S1403900</t>
+  </si>
+  <si>
+    <t>박홍권</t>
+  </si>
+  <si>
+    <t>63-111583</t>
+  </si>
+  <si>
+    <t>S1500918</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>52-101994</t>
+  </si>
+  <si>
+    <t>S1504729</t>
+  </si>
+  <si>
+    <t>전수행</t>
+  </si>
+  <si>
+    <t>51-122077</t>
+  </si>
+  <si>
+    <t>S1504862</t>
+  </si>
+  <si>
+    <t>유준영</t>
+  </si>
+  <si>
+    <t>51-138483</t>
+  </si>
+  <si>
+    <t>S1604840</t>
+  </si>
+  <si>
+    <t>심재인</t>
+  </si>
+  <si>
+    <t>36-116856</t>
+  </si>
+  <si>
+    <t>S1607113</t>
+  </si>
+  <si>
+    <t>손현빈</t>
+  </si>
+  <si>
+    <t>44-114953</t>
+  </si>
+  <si>
+    <t>S1609184</t>
+  </si>
+  <si>
+    <t>홍성곤</t>
+  </si>
+  <si>
+    <t>48-108603</t>
+  </si>
+  <si>
+    <t>S1701295</t>
+  </si>
+  <si>
+    <t>김지원</t>
+  </si>
+  <si>
+    <t>46-102465</t>
+  </si>
+  <si>
+    <t>S1705586</t>
+  </si>
+  <si>
+    <t>권오준</t>
+  </si>
+  <si>
+    <t>72-104903</t>
+  </si>
+  <si>
+    <t>S1802360</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>69-114264</t>
+  </si>
+  <si>
+    <t>S1803575</t>
+  </si>
+  <si>
+    <t>김지영</t>
+  </si>
+  <si>
+    <t>60100929</t>
+  </si>
+  <si>
+    <t>S1805412</t>
+  </si>
+  <si>
+    <t>박혜선</t>
+  </si>
+  <si>
+    <t>60-107671</t>
+  </si>
+  <si>
+    <t>S1900079</t>
+  </si>
+  <si>
+    <t>김병주</t>
+  </si>
+  <si>
+    <t>50-107218</t>
+  </si>
+  <si>
+    <t>S1905430</t>
+  </si>
+  <si>
+    <t>이동현</t>
+  </si>
+  <si>
+    <t>70-106088</t>
+  </si>
+  <si>
+    <t>S1907960</t>
+  </si>
+  <si>
+    <t>이재혁</t>
+  </si>
+  <si>
+    <t>46-109397</t>
+  </si>
+  <si>
+    <t>S1910108</t>
+  </si>
+  <si>
+    <t>이서우</t>
+  </si>
+  <si>
+    <t>54-109760</t>
+  </si>
+  <si>
+    <t>S1911280</t>
+  </si>
+  <si>
+    <t>장혜연</t>
+  </si>
+  <si>
+    <t>65-101194</t>
+  </si>
+  <si>
+    <t>S2208577</t>
+  </si>
+  <si>
+    <t>노희주</t>
+  </si>
+  <si>
+    <t>41-111473</t>
+  </si>
+  <si>
+    <t>S2210734</t>
+  </si>
+  <si>
+    <t>서다빈</t>
+  </si>
+  <si>
+    <t>38-117001</t>
+  </si>
+  <si>
+    <t>S2300233</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>51-127351</t>
+  </si>
+  <si>
+    <t>S2300240</t>
+  </si>
+  <si>
+    <t>신석하</t>
+  </si>
+  <si>
+    <t>28-105723</t>
+  </si>
+  <si>
+    <t>S2304985</t>
+  </si>
+  <si>
+    <t>강혜련</t>
+  </si>
+  <si>
+    <t>36-115803</t>
+  </si>
+  <si>
+    <t>S2305370</t>
+  </si>
+  <si>
+    <t>표희정</t>
+  </si>
+  <si>
+    <t>63-105348</t>
+  </si>
+  <si>
+    <t>S2305407</t>
+  </si>
+  <si>
+    <t>진시영</t>
+  </si>
+  <si>
+    <t>57-112612</t>
+  </si>
+  <si>
+    <t>S2310325</t>
+  </si>
+  <si>
+    <t>이채린</t>
+  </si>
+  <si>
+    <t>46-125494</t>
+  </si>
+  <si>
+    <t>S0300447</t>
+  </si>
+  <si>
+    <t>박찬희</t>
+  </si>
+  <si>
+    <t>50-217493</t>
+  </si>
+  <si>
+    <t>S0308179</t>
+  </si>
+  <si>
+    <t>송현선</t>
+  </si>
+  <si>
+    <t>50-210952</t>
+  </si>
+  <si>
+    <t>S0401877</t>
+  </si>
+  <si>
+    <t>연민주</t>
+  </si>
+  <si>
+    <t>54-230041</t>
+  </si>
+  <si>
+    <t>S0403570</t>
+  </si>
+  <si>
+    <t>홍영현</t>
+  </si>
+  <si>
+    <t>49-218722</t>
+  </si>
+  <si>
+    <t>S0503064</t>
+  </si>
+  <si>
+    <t>한수빈</t>
+  </si>
+  <si>
+    <t>53-224557</t>
+  </si>
+  <si>
+    <t>S0800531</t>
+  </si>
+  <si>
+    <t>임채영</t>
+  </si>
+  <si>
+    <t>46-237917</t>
+  </si>
+  <si>
+    <t>S0901994</t>
+  </si>
+  <si>
+    <t>공병진</t>
+  </si>
+  <si>
+    <t>22-227822</t>
+  </si>
+  <si>
+    <t>S0905034</t>
+  </si>
+  <si>
+    <t>36-242271</t>
+  </si>
+  <si>
+    <t>S1200761</t>
+  </si>
+  <si>
+    <t>김다정</t>
+  </si>
+  <si>
+    <t>43-223943</t>
+  </si>
+  <si>
+    <t>S1400278</t>
+  </si>
+  <si>
+    <t>강민서</t>
+  </si>
+  <si>
+    <t>43-224735</t>
+  </si>
+  <si>
+    <t>S1709951</t>
+  </si>
+  <si>
+    <t>유민재</t>
+  </si>
+  <si>
+    <t>66-214501</t>
+  </si>
+  <si>
+    <t>S2006414</t>
+  </si>
+  <si>
+    <t>이수연</t>
+  </si>
+  <si>
+    <t>42-234204</t>
+  </si>
+  <si>
+    <t>S2007315</t>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>60-224728</t>
+  </si>
+  <si>
+    <t>S2007900</t>
+  </si>
+  <si>
+    <t>조다민</t>
+  </si>
+  <si>
+    <t>68-209761</t>
+  </si>
+  <si>
+    <t>S2306200</t>
+  </si>
+  <si>
+    <t>한석민</t>
+  </si>
+  <si>
+    <t>48-220660</t>
+  </si>
+  <si>
+    <t>S0801988</t>
+  </si>
+  <si>
+    <t>이혜수</t>
+  </si>
+  <si>
+    <t>36-140152</t>
+  </si>
+  <si>
+    <t>S2302962</t>
+  </si>
+  <si>
+    <t>장근호</t>
+  </si>
+  <si>
+    <t>36-137843</t>
   </si>
 </sst>
 </file>
@@ -701,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -718,7 +1715,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -730,39 +1727,39 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -772,19 +1769,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -794,19 +1791,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -816,19 +1813,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -838,19 +1835,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -860,19 +1857,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -882,19 +1879,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -904,19 +1901,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -926,19 +1923,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -948,19 +1945,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -973,16 +1970,16 @@
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -992,19 +1989,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1014,19 +2011,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1038,43 +2035,43 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1084,19 +2081,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1106,18 +2103,20 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2">
-        <v>220617102</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1126,19 +2125,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1148,19 +2147,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1170,36 +2169,1940 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>265</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>269</v>
+      </c>
+      <c r="B87" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>271</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" t="s">
+        <v>276</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" t="s">
+        <v>306</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>307</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>311</v>
+      </c>
+      <c r="B101" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>313</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>317</v>
+      </c>
+      <c r="B103" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>320</v>
+      </c>
+      <c r="B104" t="s">
+        <v>321</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>323</v>
+      </c>
+      <c r="B105" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>325</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>326</v>
+      </c>
+      <c r="B106" t="s">
+        <v>327</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>328</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>329</v>
+      </c>
+      <c r="B107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>331</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>332</v>
+      </c>
+      <c r="B108" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>334</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>337</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>340</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>341</v>
+      </c>
+      <c r="B111" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>343</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>344</v>
+      </c>
+      <c r="B112" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>346</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>353</v>
+      </c>
+      <c r="B115" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>358</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>359</v>
+      </c>
+      <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>361</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>362</v>
+      </c>
+      <c r="B118" t="s">
+        <v>363</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>364</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>365</v>
+      </c>
+      <c r="B119" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>367</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>368</v>
+      </c>
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>370</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>373</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>374</v>
+      </c>
+      <c r="B122" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>376</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>377</v>
+      </c>
+      <c r="B123" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>379</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>380</v>
+      </c>
+      <c r="B124" t="s">
+        <v>381</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>382</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>383</v>
+      </c>
+      <c r="B125" t="s">
+        <v>375</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>384</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>387</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>388</v>
+      </c>
+      <c r="B127" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>390</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>391</v>
+      </c>
+      <c r="B128" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>393</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>394</v>
+      </c>
+      <c r="B129" t="s">
+        <v>395</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>396</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>397</v>
+      </c>
+      <c r="B130" t="s">
+        <v>398</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>399</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>400</v>
+      </c>
+      <c r="B131" t="s">
+        <v>401</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>402</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>403</v>
+      </c>
+      <c r="B132" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>405</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>406</v>
+      </c>
+      <c r="B133" t="s">
+        <v>407</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>408</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>409</v>
+      </c>
+      <c r="B134" t="s">
+        <v>410</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>411</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
